--- a/biology/Zoologie/Coleonyx_brevis/Coleonyx_brevis.xlsx
+++ b/biology/Zoologie/Coleonyx_brevis/Coleonyx_brevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleonyx brevis est une espèce de geckos de la famille des Eublepharidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleonyx brevis est une espèce de geckos de la famille des Eublepharidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Texas et au Nouveau-Mexique aux États-Unis et au Chihuahua, au Coahuila, au Nuevo León, au Durango et au Tamaulipas au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Texas et au Nouveau-Mexique aux États-Unis et au Chihuahua, au Coahuila, au Nuevo León, au Durango et au Tamaulipas au Mexique.
 Ce gecko vit dans des zones semi-arides (40 à 50 % d'humidité relative), avec des températures allant de 25 à 35 °C la journée, et descendant entre 20 et 25 °C la nuit. Durant l'hiver la température chute d'une dizaine de degrés la journée, un peu moins la nuit.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne et terrestre assez fin d'aspect, atteignant 11 centimètres. Il est brun clair avec des taches plus sombres, et des bandes transversales blanc-beige. Les pattes sont claires, presque rosées.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est insectivore et consomme la plupart des insectes et autres arthropodes de taille adaptée. Elle se nourrit occasionnellement de termites.
 </t>
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction débute à la sortie de l'hiver. Les femelles pondent deux œufs à la fois.
 </t>
@@ -636,7 +656,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal plutôt craintif.
 Volontiers fouisseur, il aimera se faufiler dans une anfractuosité rocheuse ou dans un petit trou présent à la base d’un morceau de bois. Il peut ainsi rester des heures voire des jours dans cette cachette.
@@ -668,7 +690,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre chez les terrariophiles.
 </t>
@@ -699,7 +723,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Stejneger, 1893 : Annotated list of the reptiles and batrachians collected by the Death Valley Expedition in 1891, with descriptions of new species. North American Fauna, n. 7, p. 159-228 (texte intégral).</t>
         </is>
